--- a/wordDocs/Gantt chart.xlsx
+++ b/wordDocs/Gantt chart.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/uni/FYP chatbot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/uni/FYP_chatbot/Programming/Chatbot/venvfyp/wordDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1040" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="880" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Semester 1</t>
   </si>
@@ -47,47 +47,44 @@
     <t>Technical research</t>
   </si>
   <si>
-    <t>Technical learning</t>
-  </si>
-  <si>
     <t>Jan Deliverable</t>
   </si>
   <si>
-    <t>Gather source codes</t>
-  </si>
-  <si>
-    <t>Improvements and additional functionality</t>
-  </si>
-  <si>
-    <t>Machine &amp; Deep learning  + Data gathering</t>
-  </si>
-  <si>
     <t>Report: Intro</t>
   </si>
   <si>
     <t>Report: Technical</t>
   </si>
   <si>
-    <t>Test deep learning</t>
-  </si>
-  <si>
     <t>Report: Evaluation + Performance</t>
   </si>
   <si>
-    <t>API Integrations</t>
-  </si>
-  <si>
     <t>Project submission</t>
   </si>
   <si>
-    <t>Further testing and evaluation</t>
+    <t>Additional functionality</t>
+  </si>
+  <si>
+    <t>Technical learning + understanding</t>
+  </si>
+  <si>
+    <t>Test deep learning models on new data</t>
+  </si>
+  <si>
+    <t>Optimizing models</t>
+  </si>
+  <si>
+    <t>Gathering training data for machine learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train models on new functionality </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,8 +108,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,17 +193,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -474,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,34 +518,34 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -631,7 +641,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -645,7 +655,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -653,14 +663,14 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -674,28 +684,28 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -703,7 +713,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -712,13 +722,13 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="7"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -732,7 +742,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -742,12 +752,12 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="7"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -760,8 +770,8 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+      <c r="A8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -772,13 +782,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -790,7 +800,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -804,11 +814,11 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -818,8 +828,8 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
+      <c r="A10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -833,12 +843,12 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -848,7 +858,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -863,13 +873,13 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -877,7 +887,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -892,21 +902,21 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
+      <c r="A13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -921,21 +931,21 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -950,53 +960,28 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="P1:Y1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/wordDocs/Gantt chart.xlsx
+++ b/wordDocs/Gantt chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="880" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="-24000" yWindow="-18300" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>Optimizing models</t>
   </si>
   <si>
-    <t>Gathering training data for machine learning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Train models on new functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gathering training data </t>
   </si>
 </sst>
 </file>
@@ -487,32 +487,33 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="2.83203125" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="3.83203125" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="3.1640625" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="10" width="2.83203125" customWidth="1"/>
+    <col min="11" max="12" width="3.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.5" customWidth="1"/>
-    <col min="16" max="16" width="4.5" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="20" width="3.5" customWidth="1"/>
-    <col min="21" max="21" width="4" customWidth="1"/>
-    <col min="22" max="22" width="3.5" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" customWidth="1"/>
+    <col min="20" max="20" width="3.5" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" customWidth="1"/>
+    <col min="22" max="22" width="2.33203125" customWidth="1"/>
     <col min="23" max="23" width="5.33203125" customWidth="1"/>
-    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" customWidth="1"/>
     <col min="25" max="25" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -684,7 +685,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -887,7 +888,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
